--- a/Data/Habitat_Data/ReachInfo.xlsx
+++ b/Data/Habitat_Data/ReachInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10497B8C-AE1B-45B8-AEBB-FB399630D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E858A9-93A5-4C6A-9989-ED37AB2BADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4800,8 +4800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="C537" sqref="C537"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C738" sqref="C738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43718,7 +43718,7 @@
         <v>30</v>
       </c>
       <c r="C477" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D477" t="s">
         <v>31</v>
@@ -43798,7 +43798,7 @@
         <v>30</v>
       </c>
       <c r="C478" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D478" t="s">
         <v>31</v>
@@ -43878,7 +43878,7 @@
         <v>30</v>
       </c>
       <c r="C479" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D479" t="s">
         <v>31</v>

--- a/Data/Habitat_Data/ReachInfo.xlsx
+++ b/Data/Habitat_Data/ReachInfo.xlsx
@@ -24667,11 +24667,21 @@
       <c r="R278"/>
       <c r="S278"/>
       <c r="T278"/>
-      <c r="U278"/>
-      <c r="V278"/>
-      <c r="W278"/>
-      <c r="X278"/>
-      <c r="Y278"/>
+      <c r="U278" t="n">
+        <v>7.359099221</v>
+      </c>
+      <c r="V278" t="n">
+        <v>0</v>
+      </c>
+      <c r="W278" t="n">
+        <v>2</v>
+      </c>
+      <c r="X278" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
